--- a/Gym_Database.xlsx
+++ b/Gym_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gym_Database_services" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="449">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -136,6 +136,15 @@
     <t xml:space="preserve">Bus ticket booking services</t>
   </si>
   <si>
+    <t xml:space="preserve">PhotoShoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wedding photos,Reception shoot,short film,drone shots</t>
+  </si>
+  <si>
     <t xml:space="preserve">service_type</t>
   </si>
   <si>
@@ -1195,16 +1204,22 @@
     <t xml:space="preserve">Reliable Tickets</t>
   </si>
   <si>
+    <t xml:space="preserve">+91 96002 62803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reliabletickets@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliable ticket services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All modes, Instant booking, Cancellation support</t>
+  </si>
+  <si>
     <t xml:space="preserve">+91 98765 43256</t>
   </si>
   <si>
-    <t xml:space="preserve">reliabletickets@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliable ticket services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All modes, Instant booking, Cancellation support</t>
+    <t xml:space="preserve">Virinjipuram</t>
   </si>
   <si>
     <t xml:space="preserve">Electronics</t>
@@ -1364,7 +1379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1386,6 +1401,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1430,12 +1451,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1628,10 +1653,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1826,6 +1851,23 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1844,19 +1886,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="43.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="43.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,40 +1907,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,29 +1951,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>52</v>
+      </c>
       <c r="H2" s="1" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
@@ -1944,34 +1986,34 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>8</v>
@@ -1985,31 +2027,31 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>8</v>
@@ -2023,31 +2065,31 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>8</v>
@@ -2061,31 +2103,31 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>8</v>
@@ -2099,31 +2141,31 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>8</v>
@@ -2137,31 +2179,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>12</v>
@@ -2175,31 +2217,31 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>12</v>
@@ -2213,31 +2255,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>12</v>
@@ -2251,31 +2293,31 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>12</v>
@@ -2289,31 +2331,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>12</v>
@@ -2327,31 +2369,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>12</v>
@@ -2365,31 +2407,31 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>12</v>
@@ -2403,31 +2445,31 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>12</v>
@@ -2441,31 +2483,31 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>12</v>
@@ -2479,31 +2521,31 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>12</v>
@@ -2517,31 +2559,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>12</v>
@@ -2555,31 +2597,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>12</v>
@@ -2593,31 +2635,31 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>12</v>
@@ -2631,31 +2673,31 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>12</v>
@@ -2669,31 +2711,31 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>12</v>
@@ -2707,31 +2749,31 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>12</v>
@@ -2745,31 +2787,31 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>12</v>
@@ -2783,31 +2825,31 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>12</v>
@@ -2821,31 +2863,31 @@
         <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>12</v>
@@ -2859,31 +2901,31 @@
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>12</v>
@@ -2897,31 +2939,31 @@
         <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>12</v>
@@ -2935,31 +2977,31 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>12</v>
@@ -2973,31 +3015,31 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>12</v>
@@ -3011,31 +3053,31 @@
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>4.5</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>12</v>
@@ -3049,31 +3091,31 @@
         <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>4.6</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>12</v>
@@ -3087,31 +3129,31 @@
         <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>12</v>
@@ -3125,31 +3167,31 @@
         <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>12</v>
@@ -3163,31 +3205,31 @@
         <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>12</v>
@@ -3201,31 +3243,31 @@
         <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>12</v>
@@ -3239,31 +3281,31 @@
         <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>4.5</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>12</v>
@@ -3277,31 +3319,31 @@
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>12</v>
@@ -3315,31 +3357,31 @@
         <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>12</v>
@@ -3353,31 +3395,31 @@
         <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>12</v>
@@ -3391,31 +3433,31 @@
         <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>12</v>
@@ -3429,31 +3471,31 @@
         <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>12</v>
@@ -3467,31 +3509,31 @@
         <v>26</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>12</v>
@@ -3505,31 +3547,31 @@
         <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>12</v>
@@ -3543,31 +3585,31 @@
         <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>12</v>
@@ -3581,31 +3623,31 @@
         <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>12</v>
@@ -3619,31 +3661,31 @@
         <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>12</v>
@@ -3657,31 +3699,31 @@
         <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>12</v>
@@ -3695,31 +3737,31 @@
         <v>29</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>12</v>
@@ -3733,31 +3775,31 @@
         <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>4.5</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>12</v>
@@ -3771,31 +3813,31 @@
         <v>32</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>12</v>
@@ -3809,31 +3851,31 @@
         <v>32</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>12</v>
@@ -3847,31 +3889,31 @@
         <v>32</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>12</v>
@@ -3885,31 +3927,31 @@
         <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>12</v>
@@ -3923,31 +3965,31 @@
         <v>32</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>4.5</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>12</v>
@@ -3961,16 +4003,16 @@
         <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>4</v>
@@ -3979,13 +4021,13 @@
         <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>12</v>
@@ -3999,31 +4041,31 @@
         <v>35</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>12</v>
@@ -4037,31 +4079,31 @@
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>12</v>
@@ -4075,31 +4117,31 @@
         <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>12</v>
@@ -4113,31 +4155,31 @@
         <v>35</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>12</v>
@@ -4151,34 +4193,69 @@
         <v>35</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4227,13 +4304,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -4244,13 +4321,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -4261,13 +4338,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -4278,13 +4355,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -4295,13 +4372,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -4341,37 +4418,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -4382,37 +4459,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>4.3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
@@ -4423,34 +4500,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>12</v>
@@ -4461,34 +4538,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>12</v>
@@ -4499,34 +4576,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>4.4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>12</v>
@@ -4537,34 +4614,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>12</v>
